--- a/Table S3 step-2.xlsx
+++ b/Table S3 step-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shkrob\Dropbox\new papers\REDOX paper\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shkrob\Dropbox\new papers\REDOX paper\github\machine readable tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281B208A-E40D-4789-90B7-57589D117EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CA09D8-2F2A-44F1-969A-5CACF6663F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="996" windowWidth="20628" windowHeight="9696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S3, step-2" sheetId="1" r:id="rId1"/>
@@ -1712,9 +1712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,7 +1933,7 @@
         <v>2945.3</v>
       </c>
       <c r="P5" s="5">
-        <v>1573</v>
+        <v>2025</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>382</v>
@@ -3204,6 +3204,9 @@
       <c r="O37" s="5">
         <v>762</v>
       </c>
+      <c r="P37" s="5">
+        <v>947</v>
+      </c>
       <c r="Q37" s="5" t="s">
         <v>323</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>393</v>
       </c>
       <c r="P49" s="5">
-        <v>2522</v>
+        <v>1943</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>325</v>
@@ -3717,7 +3720,7 @@
         <v>377</v>
       </c>
       <c r="P50" s="5">
-        <v>1673</v>
+        <v>2068</v>
       </c>
       <c r="Q50" s="5" t="s">
         <v>382</v>
@@ -3942,7 +3945,7 @@
         <v>246</v>
       </c>
       <c r="P57" s="5">
-        <v>637</v>
+        <v>728</v>
       </c>
       <c r="Q57" s="5" t="s">
         <v>382</v>
@@ -4232,7 +4235,7 @@
         <v>159</v>
       </c>
       <c r="P65" s="5">
-        <v>1188</v>
+        <v>790</v>
       </c>
       <c r="Q65" s="5" t="s">
         <v>325</v>
@@ -4308,7 +4311,7 @@
         <v>126</v>
       </c>
       <c r="P67" s="5">
-        <v>134.69999999999999</v>
+        <v>132</v>
       </c>
       <c r="Q67" s="5" t="s">
         <v>382</v>
@@ -4350,7 +4353,7 @@
         <v>110</v>
       </c>
       <c r="P68" s="5">
-        <v>862</v>
+        <v>936</v>
       </c>
       <c r="Q68" s="5" t="s">
         <v>325</v>
